--- a/medicine/Enfance/Philippe_Matter/Philippe_Matter.xlsx
+++ b/medicine/Enfance/Philippe_Matter/Philippe_Matter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Matter, né le 13 novembre 1958 à Yaoundé au Cameroun, est un auteur et un illustrateur français. Il est le créateur d'un  personnage populaire auprès des enfants, Mini-Loup[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Matter, né le 13 novembre 1958 à Yaoundé au Cameroun, est un auteur et un illustrateur français. Il est le créateur d'un  personnage populaire auprès des enfants, Mini-Loup.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Yaoundé au Cameroun, il est arrivé en France à l'âge de cinq ans. Il a grandi à Wissembourg dans le nord de l'Alsace.
 Il a fait ses études à l'École supérieure des arts décoratifs de Strasbourg.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1 une petite sœur pour mini-loup
 2 mini loup et les dinosaures
